--- a/data/georgia_census/kakheti/sagarejo/age_dependency.xlsx
+++ b/data/georgia_census/kakheti/sagarejo/age_dependency.xlsx
@@ -1007,13 +1007,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34F29DCA-09B2-46BE-B6EA-FDB2641C3202}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0EF8676-2ADF-4BF0-A502-9E49A4A0F1EC}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{266C5F5D-6C93-45B3-A743-8CE30B19ADEA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC55BB2A-CB38-4DE9-82CC-28EABABF13D4}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF698CB3-266F-4EBA-B6A7-BAD864793C32}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BD72434-B435-4C33-B9C3-D64D24ADAB68}"/>
 </file>